--- a/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
+++ b/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20710" windowHeight="13270" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20710" windowHeight="13270" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Zeiterfassung IT-Projekt Wirtschaftsinformatik PJ (256002)</t>
+  </si>
+  <si>
+    <t>Guppen Meeting</t>
+  </si>
+  <si>
+    <t>Literaturrecherche</t>
   </si>
 </sst>
 </file>
@@ -414,11 +420,8 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -427,50 +430,25 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -550,25 +528,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -583,55 +542,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -667,27 +577,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -726,6 +616,122 @@
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1001,19 +1007,19 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1701,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,17 +1767,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle35" displayName="Tabelle35" ref="B6:F66" totalsRowCount="1" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle35" displayName="Tabelle35" ref="B6:F66" totalsRowCount="1" headerRowDxfId="23">
   <autoFilter ref="B6:F65"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" name="Datum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="von" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="bis" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="8">
+    <tableColumn id="2" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="22" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Datum" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="von" dataDxfId="20" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="bis" dataDxfId="19" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="0">
       <calculatedColumnFormula>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1780,41 +1786,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle34" displayName="Tabelle34" ref="B6:F59" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle34" displayName="Tabelle34" ref="B6:F59" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="B6:F59"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
-    <tableColumn id="3" name="Datum" dataDxfId="21"/>
-    <tableColumn id="8" name="von" dataDxfId="20"/>
-    <tableColumn id="4" name="bis" dataDxfId="19"/>
-    <tableColumn id="5" name="Dauer" dataDxfId="18"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="17"/>
+    <tableColumn id="3" name="Datum" dataDxfId="16"/>
+    <tableColumn id="8" name="von" dataDxfId="15"/>
+    <tableColumn id="4" name="bis" dataDxfId="14"/>
+    <tableColumn id="5" name="Dauer" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B6:F58"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Beschreibung" dataDxfId="6"/>
-    <tableColumn id="3" name="Datum" dataDxfId="5"/>
-    <tableColumn id="8" name="von" dataDxfId="4"/>
-    <tableColumn id="4" name="bis" dataDxfId="3"/>
-    <tableColumn id="5" name="Dauer" dataDxfId="2"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="3" name="Datum" dataDxfId="10"/>
+    <tableColumn id="8" name="von" dataDxfId="9"/>
+    <tableColumn id="4" name="bis" dataDxfId="8"/>
+    <tableColumn id="5" name="Dauer" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B6:F58"/>
   <sortState ref="B7:H58">
     <sortCondition ref="C6:C58"/>
@@ -1824,7 +1830,7 @@
     <tableColumn id="8" name="Datum"/>
     <tableColumn id="4" name="von"/>
     <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="0">
+    <tableColumn id="15" name="Dauer" dataDxfId="5">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2185,23 +2191,23 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>Samardzic!F64</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F59</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E4" s="1">
         <f>ToDo!F58</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -2321,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2368,12 +2374,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F7">
-        <v>0</v>
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2931,7 +2946,7 @@
       <c r="E64" s="28"/>
       <c r="F64">
         <f>SUM(F7:F63)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4013,7 +4028,7 @@
   <dimension ref="A2:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4059,13 +4074,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F7" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4676,7 +4699,7 @@
       <c r="E66" s="42"/>
       <c r="F66" s="42">
         <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5966,8 +5989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6013,23 +6036,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="24">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="F7">
+        <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43543</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F8">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -6554,7 +6593,7 @@
       <c r="E59" s="21"/>
       <c r="F59" s="24">
         <f>SUM(F7:F58)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7947,7 +7986,7 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7993,22 +8032,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F7">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43543</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F8">
-        <v>0</v>
+        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -8523,7 +8579,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9915,8 +9971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9962,13 +10018,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F7" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -10478,7 +10542,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
